--- a/CheckListAlyce.xlsx
+++ b/CheckListAlyce.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28.06.2020_20.57.55</t>
+          <t>28.06.2020_21.06.57</t>
         </is>
       </c>
     </row>
@@ -504,14 +504,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>three users on page</t>
+          <t>one apple per minute</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
